--- a/Files/data/xlsx_data/BirdNET_species_list.xlsx
+++ b/Files/data/xlsx_data/BirdNET_species_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\BirdnetProject\Files\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\BirdnetProject\Files\data\xlsx_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F998444D-E432-460C-835C-F164755BD253}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF311AD2-3D29-45C0-9DA4-EFFAE195B42C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7752" yWindow="1548" windowWidth="11412" windowHeight="9948" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -6282,9 +6282,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B983"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A412" workbookViewId="0">
+      <selection activeCell="D419" sqref="D419"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.44140625" customWidth="1"/>
+    <col min="2" max="2" width="26" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
